--- a/SLA_Dictionaries_Cardiolipins/standard_dict_Cardiolipins.xlsx
+++ b/SLA_Dictionaries_Cardiolipins/standard_dict_Cardiolipins.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabien.riols\Desktop\MiMB_Cardiolipins\Cardiolipins_GitHUB\SLA_Libraries_Cardiolipins\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabien.riols\Desktop\MiMB_Cardiolipins\Cardiolipins_GitHUB\SLA_Dictionaries_Cardiolipins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6893A710-6322-4CB2-9D89-66BF3CA5FF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D8E4C4-CBBA-4D9B-8B7B-652983EDF899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -711,7 +711,7 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,19 +1758,19 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" s="2">
         <f>VLOOKUP(B38,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D38">
         <f>VLOOKUP(B38,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E38">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F38">
         <f>VLOOKUP(B38,StdInfo!B:E,3,FALSE())</f>
@@ -1786,19 +1786,19 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" s="2">
         <f>VLOOKUP(B39,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D39">
         <f>VLOOKUP(B39,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E39">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F39">
         <f>VLOOKUP(B39,StdInfo!B:E,3,FALSE())</f>
@@ -1814,19 +1814,19 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" s="2">
         <f>VLOOKUP(B40,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D40">
         <f>VLOOKUP(B40,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F40">
         <f>VLOOKUP(B40,StdInfo!B:E,3,FALSE())</f>
@@ -1842,19 +1842,19 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" s="2">
         <f>VLOOKUP(B41,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D41">
         <f>VLOOKUP(B41,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E41">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F41">
         <f>VLOOKUP(B41,StdInfo!B:E,3,FALSE())</f>
@@ -1870,19 +1870,19 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" s="2">
         <f>VLOOKUP(B42,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D42">
         <f>VLOOKUP(B42,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E42">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F42">
         <f>VLOOKUP(B42,StdInfo!B:E,3,FALSE())</f>
@@ -1898,19 +1898,19 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" s="2">
         <f>VLOOKUP(B43,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D43">
         <f>VLOOKUP(B43,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E43">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F43">
         <f>VLOOKUP(B43,StdInfo!B:E,3,FALSE())</f>
@@ -1926,19 +1926,19 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" s="2">
         <f>VLOOKUP(B44,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D44">
         <f>VLOOKUP(B44,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F44">
         <f>VLOOKUP(B44,StdInfo!B:E,3,FALSE())</f>
@@ -1954,19 +1954,19 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" s="2">
         <f>VLOOKUP(B45,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D45">
         <f>VLOOKUP(B45,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E45">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F45">
         <f>VLOOKUP(B45,StdInfo!B:E,3,FALSE())</f>
@@ -1982,19 +1982,19 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" s="2">
         <f>VLOOKUP(B46,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D46">
         <f>VLOOKUP(B46,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E46">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F46">
         <f>VLOOKUP(B46,StdInfo!B:E,3,FALSE())</f>
@@ -2010,19 +2010,19 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" s="2">
         <f>VLOOKUP(B47,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D47">
         <f>VLOOKUP(B47,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E47">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F47">
         <f>VLOOKUP(B47,StdInfo!B:E,3,FALSE())</f>
@@ -2038,19 +2038,19 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" s="2">
         <f>VLOOKUP(B48,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D48">
         <f>VLOOKUP(B48,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F48">
         <f>VLOOKUP(B48,StdInfo!B:E,3,FALSE())</f>
@@ -2066,19 +2066,19 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" s="2">
         <f>VLOOKUP(B49,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D49">
         <f>VLOOKUP(B49,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E49">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F49">
         <f>VLOOKUP(B49,StdInfo!B:E,3,FALSE())</f>
@@ -2094,19 +2094,19 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" s="2">
         <f>VLOOKUP(B50,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D50">
         <f>VLOOKUP(B50,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E50">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F50">
         <f>VLOOKUP(B50,StdInfo!B:E,3,FALSE())</f>
@@ -2122,19 +2122,19 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" s="2">
         <f>VLOOKUP(B51,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D51">
         <f>VLOOKUP(B51,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E51">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F51">
         <f>VLOOKUP(B51,StdInfo!B:E,3,FALSE())</f>
@@ -2150,19 +2150,19 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" s="2">
         <f>VLOOKUP(B52,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D52">
         <f>VLOOKUP(B52,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E52">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F52">
         <f>VLOOKUP(B52,StdInfo!B:E,3,FALSE())</f>
@@ -2178,19 +2178,19 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" s="2">
         <f>VLOOKUP(B53,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D53">
         <f>VLOOKUP(B53,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E53">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F53">
         <f>VLOOKUP(B53,StdInfo!B:E,3,FALSE())</f>
@@ -2206,19 +2206,19 @@
         <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" s="2">
         <f>VLOOKUP(B54,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D54">
         <f>VLOOKUP(B54,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E54">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F54">
         <f>VLOOKUP(B54,StdInfo!B:E,3,FALSE())</f>
@@ -2234,19 +2234,19 @@
         <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" s="2">
         <f>VLOOKUP(B55,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D55">
         <f>VLOOKUP(B55,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E55">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F55">
         <f>VLOOKUP(B55,StdInfo!B:E,3,FALSE())</f>
@@ -2262,19 +2262,19 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" s="2">
         <f>VLOOKUP(B56,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D56">
         <f>VLOOKUP(B56,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E56">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F56">
         <f>VLOOKUP(B56,StdInfo!B:E,3,FALSE())</f>
@@ -2290,19 +2290,19 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" s="2">
         <f>VLOOKUP(B57,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D57">
         <f>VLOOKUP(B57,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E57">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F57">
         <f>VLOOKUP(B57,StdInfo!B:E,3,FALSE())</f>
@@ -2318,19 +2318,19 @@
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" s="2">
         <f>VLOOKUP(B58,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D58">
         <f>VLOOKUP(B58,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E58">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F58">
         <f>VLOOKUP(B58,StdInfo!B:E,3,FALSE())</f>
@@ -2346,19 +2346,19 @@
         <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" s="2">
         <f>VLOOKUP(B59,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D59">
         <f>VLOOKUP(B59,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E59">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F59">
         <f>VLOOKUP(B59,StdInfo!B:E,3,FALSE())</f>
@@ -2374,19 +2374,19 @@
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" s="2">
         <f>VLOOKUP(B60,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D60">
         <f>VLOOKUP(B60,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E60">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F60">
         <f>VLOOKUP(B60,StdInfo!B:E,3,FALSE())</f>
@@ -2402,19 +2402,19 @@
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" s="2">
         <f>VLOOKUP(B61,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D61">
         <f>VLOOKUP(B61,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E61">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F61">
         <f>VLOOKUP(B61,StdInfo!B:E,3,FALSE())</f>
@@ -2430,19 +2430,19 @@
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" s="2">
         <f>VLOOKUP(B62,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D62">
         <f>VLOOKUP(B62,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E62">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F62">
         <f>VLOOKUP(B62,StdInfo!B:E,3,FALSE())</f>
@@ -2458,19 +2458,19 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" s="2">
         <f>VLOOKUP(B63,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D63">
         <f>VLOOKUP(B63,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E63">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F63">
         <f>VLOOKUP(B63,StdInfo!B:E,3,FALSE())</f>
@@ -2486,19 +2486,19 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" s="2">
         <f>VLOOKUP(B64,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D64">
         <f>VLOOKUP(B64,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E64">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F64">
         <f>VLOOKUP(B64,StdInfo!B:E,3,FALSE())</f>
@@ -2514,19 +2514,19 @@
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" s="2">
         <f>VLOOKUP(B65,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D65">
         <f>VLOOKUP(B65,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E65">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F65">
         <f>VLOOKUP(B65,StdInfo!B:E,3,FALSE())</f>
@@ -2542,19 +2542,19 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" s="2">
         <f>VLOOKUP(B66,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D66">
         <f>VLOOKUP(B66,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E66">
         <f t="shared" si="2"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F66">
         <f>VLOOKUP(B66,StdInfo!B:E,3,FALSE())</f>
@@ -2570,19 +2570,19 @@
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" s="2">
         <f>VLOOKUP(B67,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D67">
         <f>VLOOKUP(B67,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E79" si="4">ROUND(D67/C67*100000*F67/2.5,10)/IF(G67=TRUE(),2,1)</f>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F67">
         <f>VLOOKUP(B67,StdInfo!B:E,3,FALSE())</f>
@@ -2598,19 +2598,19 @@
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" s="2">
         <f>VLOOKUP(B68,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D68">
         <f>VLOOKUP(B68,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E68">
         <f t="shared" si="4"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F68">
         <f>VLOOKUP(B68,StdInfo!B:E,3,FALSE())</f>
@@ -2626,19 +2626,19 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" s="2">
         <f>VLOOKUP(B69,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D69">
         <f>VLOOKUP(B69,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E69">
         <f t="shared" si="4"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F69">
         <f>VLOOKUP(B69,StdInfo!B:E,3,FALSE())</f>
@@ -2654,19 +2654,19 @@
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" s="2">
         <f>VLOOKUP(B70,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D70">
         <f>VLOOKUP(B70,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E70">
         <f t="shared" si="4"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F70">
         <f>VLOOKUP(B70,StdInfo!B:E,3,FALSE())</f>
@@ -2682,19 +2682,19 @@
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" s="2">
         <f>VLOOKUP(B71,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D71">
         <f>VLOOKUP(B71,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E71">
         <f t="shared" si="4"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F71">
         <f>VLOOKUP(B71,StdInfo!B:E,3,FALSE())</f>
@@ -2710,19 +2710,19 @@
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" s="2">
         <f>VLOOKUP(B72,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D72">
         <f>VLOOKUP(B72,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E72">
         <f t="shared" si="4"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F72">
         <f>VLOOKUP(B72,StdInfo!B:E,3,FALSE())</f>
@@ -2738,19 +2738,19 @@
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" s="2">
         <f>VLOOKUP(B73,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D73">
         <f>VLOOKUP(B73,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E73">
         <f t="shared" si="4"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F73">
         <f>VLOOKUP(B73,StdInfo!B:E,3,FALSE())</f>
@@ -2766,19 +2766,19 @@
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" s="2">
         <f>VLOOKUP(B74,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D74">
         <f>VLOOKUP(B74,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E74">
         <f t="shared" si="4"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F74">
         <f>VLOOKUP(B74,StdInfo!B:E,3,FALSE())</f>
@@ -2794,19 +2794,19 @@
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" s="2">
         <f>VLOOKUP(B75,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D75">
         <f>VLOOKUP(B75,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E75">
         <f t="shared" si="4"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F75">
         <f>VLOOKUP(B75,StdInfo!B:E,3,FALSE())</f>
@@ -2822,19 +2822,19 @@
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" s="2">
         <f>VLOOKUP(B76,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D76">
         <f>VLOOKUP(B76,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E76">
         <f t="shared" si="4"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F76">
         <f>VLOOKUP(B76,StdInfo!B:E,3,FALSE())</f>
@@ -2850,19 +2850,19 @@
         <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" s="2">
         <f>VLOOKUP(B77,StdInfo!B:E,4,FALSE())</f>
-        <v>1308.9100000000001</v>
+        <v>1569.16</v>
       </c>
       <c r="D77">
         <f>VLOOKUP(B77,StdInfo!B:E,2,FALSE())</f>
-        <v>9.6659999999999996E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="E77">
         <f t="shared" si="4"/>
-        <v>7.3847705343000003</v>
+        <v>6.7813352367000004</v>
       </c>
       <c r="F77">
         <f>VLOOKUP(B77,StdInfo!B:E,3,FALSE())</f>
